--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Slamf7-Slamf7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Slamf7-Slamf7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +516,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3432635</v>
+        <v>49.60129766666667</v>
       </c>
       <c r="H2">
-        <v>0.686527</v>
+        <v>148.803893</v>
       </c>
       <c r="I2">
-        <v>0.002137288813855251</v>
+        <v>0.3676876723790476</v>
       </c>
       <c r="J2">
-        <v>0.001425875044831258</v>
+        <v>0.3676876723790476</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3432635</v>
+        <v>49.60129766666667</v>
       </c>
       <c r="N2">
-        <v>0.686527</v>
+        <v>148.803893</v>
       </c>
       <c r="O2">
-        <v>0.002137288813855251</v>
+        <v>0.3676876723790476</v>
       </c>
       <c r="P2">
-        <v>0.001425875044831258</v>
+        <v>0.3676876723790476</v>
       </c>
       <c r="Q2">
-        <v>0.11782983043225</v>
+        <v>2460.288730217273</v>
       </c>
       <c r="R2">
-        <v>0.471319321729</v>
+        <v>22142.59857195546</v>
       </c>
       <c r="S2">
-        <v>4.568003473830786E-06</v>
+        <v>0.1351942244195219</v>
       </c>
       <c r="T2">
-        <v>2.033119643472543E-06</v>
+        <v>0.1351942244195219</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +578,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3432635</v>
+        <v>49.60129766666667</v>
       </c>
       <c r="H3">
-        <v>0.686527</v>
+        <v>148.803893</v>
       </c>
       <c r="I3">
-        <v>0.002137288813855251</v>
+        <v>0.3676876723790476</v>
       </c>
       <c r="J3">
-        <v>0.001425875044831258</v>
+        <v>0.3676876723790476</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +611,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>60.52675133333332</v>
+        <v>24.040426</v>
       </c>
       <c r="N3">
-        <v>181.580254</v>
+        <v>72.121278</v>
       </c>
       <c r="O3">
-        <v>0.3768625227084491</v>
+        <v>0.178208407738514</v>
       </c>
       <c r="P3">
-        <v>0.3771312021416802</v>
+        <v>0.178208407738514</v>
       </c>
       <c r="Q3">
-        <v>20.77662450630966</v>
+        <v>1192.436326059473</v>
       </c>
       <c r="R3">
-        <v>124.659747037858</v>
+        <v>10731.92693453525</v>
       </c>
       <c r="S3">
-        <v>0.0008054640541460388</v>
+        <v>0.06552503463975048</v>
       </c>
       <c r="T3">
-        <v>0.0005377419697610346</v>
+        <v>0.06552503463975048</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,93 +640,93 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3432635</v>
+        <v>49.60129766666667</v>
       </c>
       <c r="H4">
-        <v>0.686527</v>
+        <v>148.803893</v>
       </c>
       <c r="I4">
-        <v>0.002137288813855251</v>
+        <v>0.3676876723790476</v>
       </c>
       <c r="J4">
-        <v>0.001425875044831258</v>
+        <v>0.3676876723790476</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3772943333333333</v>
+        <v>61.25890366666667</v>
       </c>
       <c r="N4">
-        <v>1.131883</v>
+        <v>183.776711</v>
       </c>
       <c r="O4">
-        <v>0.002349177696330393</v>
+        <v>0.4541039198824383</v>
       </c>
       <c r="P4">
-        <v>0.002350852513256928</v>
+        <v>0.4541039198824383</v>
       </c>
       <c r="Q4">
-        <v>0.1295113733901667</v>
+        <v>3038.521115503992</v>
       </c>
       <c r="R4">
-        <v>0.777068240341</v>
+        <v>27346.69003953593</v>
       </c>
       <c r="S4">
-        <v>5.020871212125196E-06</v>
+        <v>0.1669684133197753</v>
       </c>
       <c r="T4">
-        <v>3.352021932731899E-06</v>
+        <v>0.1669684133197753</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3432635</v>
+        <v>24.040426</v>
       </c>
       <c r="H5">
-        <v>0.686527</v>
+        <v>72.121278</v>
       </c>
       <c r="I5">
-        <v>0.002137288813855251</v>
+        <v>0.178208407738514</v>
       </c>
       <c r="J5">
-        <v>0.001425875044831258</v>
+        <v>0.178208407738514</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +735,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>99.35967000000001</v>
+        <v>49.60129766666667</v>
       </c>
       <c r="N5">
-        <v>298.07901</v>
+        <v>148.803893</v>
       </c>
       <c r="O5">
-        <v>0.6186510107813653</v>
+        <v>0.3676876723790476</v>
       </c>
       <c r="P5">
-        <v>0.6190920703002317</v>
+        <v>0.3676876723790476</v>
       </c>
       <c r="Q5">
-        <v>34.10654808304501</v>
+        <v>1192.436326059473</v>
       </c>
       <c r="R5">
-        <v>204.63928849827</v>
+        <v>10731.92693453525</v>
       </c>
       <c r="S5">
-        <v>0.001322235885023256</v>
+        <v>0.06552503463975048</v>
       </c>
       <c r="T5">
-        <v>0.0008827479334940194</v>
+        <v>0.06552503463975048</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +764,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,46 +779,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>60.52675133333332</v>
+        <v>24.040426</v>
       </c>
       <c r="H6">
-        <v>181.580254</v>
+        <v>72.121278</v>
       </c>
       <c r="I6">
-        <v>0.3768625227084491</v>
+        <v>0.178208407738514</v>
       </c>
       <c r="J6">
-        <v>0.3771312021416802</v>
+        <v>0.178208407738514</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3432635</v>
+        <v>24.040426</v>
       </c>
       <c r="N6">
-        <v>0.686527</v>
+        <v>72.121278</v>
       </c>
       <c r="O6">
-        <v>0.002137288813855251</v>
+        <v>0.178208407738514</v>
       </c>
       <c r="P6">
-        <v>0.001425875044831258</v>
+        <v>0.178208407738514</v>
       </c>
       <c r="Q6">
-        <v>20.77662450630966</v>
+        <v>577.942082261476</v>
       </c>
       <c r="R6">
-        <v>124.659747037858</v>
+        <v>5201.478740353285</v>
       </c>
       <c r="S6">
-        <v>0.0008054640541460388</v>
+        <v>0.03175823658869647</v>
       </c>
       <c r="T6">
-        <v>0.0005377419697610346</v>
+        <v>0.03175823658869647</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +826,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +841,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>60.52675133333332</v>
+        <v>24.040426</v>
       </c>
       <c r="H7">
-        <v>181.580254</v>
+        <v>72.121278</v>
       </c>
       <c r="I7">
-        <v>0.3768625227084491</v>
+        <v>0.178208407738514</v>
       </c>
       <c r="J7">
-        <v>0.3771312021416802</v>
+        <v>0.178208407738514</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,42 +859,42 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>60.52675133333332</v>
+        <v>61.25890366666667</v>
       </c>
       <c r="N7">
-        <v>181.580254</v>
+        <v>183.776711</v>
       </c>
       <c r="O7">
-        <v>0.3768625227084491</v>
+        <v>0.4541039198824383</v>
       </c>
       <c r="P7">
-        <v>0.3771312021416802</v>
+        <v>0.4541039198824383</v>
       </c>
       <c r="Q7">
-        <v>3663.487626967167</v>
+        <v>1472.690140439629</v>
       </c>
       <c r="R7">
-        <v>32971.38864270451</v>
+        <v>13254.21126395666</v>
       </c>
       <c r="S7">
-        <v>0.1420253610221763</v>
+        <v>0.08092513651006707</v>
       </c>
       <c r="T7">
-        <v>0.1422279436288288</v>
+        <v>0.08092513651006707</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -906,61 +903,61 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>60.52675133333332</v>
+        <v>61.25890366666667</v>
       </c>
       <c r="H8">
-        <v>181.580254</v>
+        <v>183.776711</v>
       </c>
       <c r="I8">
-        <v>0.3768625227084491</v>
+        <v>0.4541039198824383</v>
       </c>
       <c r="J8">
-        <v>0.3771312021416802</v>
+        <v>0.4541039198824383</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3772943333333333</v>
+        <v>49.60129766666667</v>
       </c>
       <c r="N8">
-        <v>1.131883</v>
+        <v>148.803893</v>
       </c>
       <c r="O8">
-        <v>0.002349177696330393</v>
+        <v>0.3676876723790476</v>
       </c>
       <c r="P8">
-        <v>0.002350852513256928</v>
+        <v>0.3676876723790476</v>
       </c>
       <c r="Q8">
-        <v>22.83640029314244</v>
+        <v>3038.521115503992</v>
       </c>
       <c r="R8">
-        <v>205.527602638282</v>
+        <v>27346.69003953593</v>
       </c>
       <c r="S8">
-        <v>0.0008853170329294947</v>
+        <v>0.1669684133197753</v>
       </c>
       <c r="T8">
-        <v>0.0008865798343823754</v>
+        <v>0.1669684133197753</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -968,16 +965,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>60.52675133333332</v>
+        <v>61.25890366666667</v>
       </c>
       <c r="H9">
-        <v>181.580254</v>
+        <v>183.776711</v>
       </c>
       <c r="I9">
-        <v>0.3768625227084491</v>
+        <v>0.4541039198824383</v>
       </c>
       <c r="J9">
-        <v>0.3771312021416802</v>
+        <v>0.4541039198824383</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +983,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>99.35967000000001</v>
+        <v>24.040426</v>
       </c>
       <c r="N9">
-        <v>298.07901</v>
+        <v>72.121278</v>
       </c>
       <c r="O9">
-        <v>0.6186510107813653</v>
+        <v>0.178208407738514</v>
       </c>
       <c r="P9">
-        <v>0.6190920703002317</v>
+        <v>0.178208407738514</v>
       </c>
       <c r="Q9">
-        <v>6013.918038652059</v>
+        <v>1472.690140439629</v>
       </c>
       <c r="R9">
-        <v>54125.26234786853</v>
+        <v>13254.21126395666</v>
       </c>
       <c r="S9">
-        <v>0.2331463805991972</v>
+        <v>0.08092513651006707</v>
       </c>
       <c r="T9">
-        <v>0.233478936708708</v>
+        <v>0.08092513651006707</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,495 +1012,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3772943333333333</v>
+        <v>61.25890366666667</v>
       </c>
       <c r="H10">
-        <v>1.131883</v>
+        <v>183.776711</v>
       </c>
       <c r="I10">
-        <v>0.002349177696330393</v>
+        <v>0.4541039198824383</v>
       </c>
       <c r="J10">
-        <v>0.002350852513256928</v>
+        <v>0.4541039198824383</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3432635</v>
+        <v>61.25890366666667</v>
       </c>
       <c r="N10">
-        <v>0.686527</v>
+        <v>183.776711</v>
       </c>
       <c r="O10">
-        <v>0.002137288813855251</v>
+        <v>0.4541039198824383</v>
       </c>
       <c r="P10">
-        <v>0.001425875044831258</v>
+        <v>0.4541039198824383</v>
       </c>
       <c r="Q10">
-        <v>0.1295113733901667</v>
+        <v>3752.653278441947</v>
       </c>
       <c r="R10">
-        <v>0.777068240341</v>
+        <v>33773.87950597752</v>
       </c>
       <c r="S10">
-        <v>5.020871212125196E-06</v>
+        <v>0.2062103700525959</v>
       </c>
       <c r="T10">
-        <v>3.352021932731899E-06</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>0.3772943333333333</v>
-      </c>
-      <c r="H11">
-        <v>1.131883</v>
-      </c>
-      <c r="I11">
-        <v>0.002349177696330393</v>
-      </c>
-      <c r="J11">
-        <v>0.002350852513256928</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>60.52675133333332</v>
-      </c>
-      <c r="N11">
-        <v>181.580254</v>
-      </c>
-      <c r="O11">
-        <v>0.3768625227084491</v>
-      </c>
-      <c r="P11">
-        <v>0.3771312021416802</v>
-      </c>
-      <c r="Q11">
-        <v>22.83640029314244</v>
-      </c>
-      <c r="R11">
-        <v>205.527602638282</v>
-      </c>
-      <c r="S11">
-        <v>0.0008853170329294947</v>
-      </c>
-      <c r="T11">
-        <v>0.0008865798343823754</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G12">
-        <v>0.3772943333333333</v>
-      </c>
-      <c r="H12">
-        <v>1.131883</v>
-      </c>
-      <c r="I12">
-        <v>0.002349177696330393</v>
-      </c>
-      <c r="J12">
-        <v>0.002350852513256928</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M12">
-        <v>0.3772943333333333</v>
-      </c>
-      <c r="N12">
-        <v>1.131883</v>
-      </c>
-      <c r="O12">
-        <v>0.002349177696330393</v>
-      </c>
-      <c r="P12">
-        <v>0.002350852513256928</v>
-      </c>
-      <c r="Q12">
-        <v>0.1423510139654444</v>
-      </c>
-      <c r="R12">
-        <v>1.281159125689</v>
-      </c>
-      <c r="S12">
-        <v>5.518635848936171E-06</v>
-      </c>
-      <c r="T12">
-        <v>5.526507539086417E-06</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.3772943333333333</v>
-      </c>
-      <c r="H13">
-        <v>1.131883</v>
-      </c>
-      <c r="I13">
-        <v>0.002349177696330393</v>
-      </c>
-      <c r="J13">
-        <v>0.002350852513256928</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>99.35967000000001</v>
-      </c>
-      <c r="N13">
-        <v>298.07901</v>
-      </c>
-      <c r="O13">
-        <v>0.6186510107813653</v>
-      </c>
-      <c r="P13">
-        <v>0.6190920703002317</v>
-      </c>
-      <c r="Q13">
-        <v>37.48784045287</v>
-      </c>
-      <c r="R13">
-        <v>337.39056407583</v>
-      </c>
-      <c r="S13">
-        <v>0.001453321156339837</v>
-      </c>
-      <c r="T13">
-        <v>0.001455394149402735</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>99.35967000000001</v>
-      </c>
-      <c r="H14">
-        <v>298.07901</v>
-      </c>
-      <c r="I14">
-        <v>0.6186510107813653</v>
-      </c>
-      <c r="J14">
-        <v>0.6190920703002317</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.5</v>
-      </c>
-      <c r="M14">
-        <v>0.3432635</v>
-      </c>
-      <c r="N14">
-        <v>0.686527</v>
-      </c>
-      <c r="O14">
-        <v>0.002137288813855251</v>
-      </c>
-      <c r="P14">
-        <v>0.001425875044831258</v>
-      </c>
-      <c r="Q14">
-        <v>34.10654808304501</v>
-      </c>
-      <c r="R14">
-        <v>204.63928849827</v>
-      </c>
-      <c r="S14">
-        <v>0.001322235885023256</v>
-      </c>
-      <c r="T14">
-        <v>0.0008827479334940194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>99.35967000000001</v>
-      </c>
-      <c r="H15">
-        <v>298.07901</v>
-      </c>
-      <c r="I15">
-        <v>0.6186510107813653</v>
-      </c>
-      <c r="J15">
-        <v>0.6190920703002317</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>60.52675133333332</v>
-      </c>
-      <c r="N15">
-        <v>181.580254</v>
-      </c>
-      <c r="O15">
-        <v>0.3768625227084491</v>
-      </c>
-      <c r="P15">
-        <v>0.3771312021416802</v>
-      </c>
-      <c r="Q15">
-        <v>6013.918038652059</v>
-      </c>
-      <c r="R15">
-        <v>54125.26234786853</v>
-      </c>
-      <c r="S15">
-        <v>0.2331463805991972</v>
-      </c>
-      <c r="T15">
-        <v>0.233478936708708</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>99.35967000000001</v>
-      </c>
-      <c r="H16">
-        <v>298.07901</v>
-      </c>
-      <c r="I16">
-        <v>0.6186510107813653</v>
-      </c>
-      <c r="J16">
-        <v>0.6190920703002317</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M16">
-        <v>0.3772943333333333</v>
-      </c>
-      <c r="N16">
-        <v>1.131883</v>
-      </c>
-      <c r="O16">
-        <v>0.002349177696330393</v>
-      </c>
-      <c r="P16">
-        <v>0.002350852513256928</v>
-      </c>
-      <c r="Q16">
-        <v>37.48784045287</v>
-      </c>
-      <c r="R16">
-        <v>337.39056407583</v>
-      </c>
-      <c r="S16">
-        <v>0.001453321156339837</v>
-      </c>
-      <c r="T16">
-        <v>0.001455394149402735</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>99.35967000000001</v>
-      </c>
-      <c r="H17">
-        <v>298.07901</v>
-      </c>
-      <c r="I17">
-        <v>0.6186510107813653</v>
-      </c>
-      <c r="J17">
-        <v>0.6190920703002317</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>99.35967000000001</v>
-      </c>
-      <c r="N17">
-        <v>298.07901</v>
-      </c>
-      <c r="O17">
-        <v>0.6186510107813653</v>
-      </c>
-      <c r="P17">
-        <v>0.6190920703002317</v>
-      </c>
-      <c r="Q17">
-        <v>9872.344022508902</v>
-      </c>
-      <c r="R17">
-        <v>88851.09620258013</v>
-      </c>
-      <c r="S17">
-        <v>0.382729073140805</v>
-      </c>
-      <c r="T17">
-        <v>0.383274991508627</v>
+        <v>0.2062103700525959</v>
       </c>
     </row>
   </sheetData>
